--- a/Anya_Sh/R_calc_Video_analysis/Data/Обработка видео.xlsx
+++ b/Anya_Sh/R_calc_Video_analysis/Data/Обработка видео.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
-    <t>Stattion</t>
+    <t>Station</t>
   </si>
   <si>
     <t>Replication</t>
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.4"/>
